--- a/Excels/USEFUL-Disk cluster sizing calculator.xlsx
+++ b/Excels/USEFUL-Disk cluster sizing calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\AA Work Area\Splunk stuff\Cluster administtration\Architecting Splunk Enterprise Deployments 9.x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crook\source\repos\MyNotes\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDC7BD9-C88B-4360-AA2E-73671592748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B499B6-B37B-4CE0-8C16-A9BA408AE7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,8 +150,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -300,7 +300,7 @@
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -365,7 +365,7 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -386,16 +386,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,9 +403,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -419,8 +419,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -842,7 +842,7 @@
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:B15"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="21">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -972,11 +972,11 @@
       </c>
       <c r="J8" s="10">
         <f>ROUNDUP(I8/E8*$B$5,0)</f>
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="K8" s="10">
         <f>I8-J8</f>
-        <v>750</v>
+        <v>813</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
@@ -1014,11 +1014,11 @@
       </c>
       <c r="J9" s="13">
         <f>ROUNDUP(I9/E9*$B$5,0)</f>
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="K9" s="13">
         <f>I9-J9</f>
-        <v>1125</v>
+        <v>1162</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -1056,11 +1056,11 @@
       </c>
       <c r="J10" s="10">
         <f t="shared" ref="J10:J15" si="3">ROUNDUP(I10/E10*$B$5,0)</f>
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" ref="K10:K15" si="4">I10-J10</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="J11" s="13">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -1140,11 +1140,11 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" si="3"/>
-        <v>526</v>
+        <v>438</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="4"/>
-        <v>1050</v>
+        <v>1138</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="J13" s="13">
         <f>ROUNDUP(I13/E13*$B$5,0)</f>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -1224,11 +1224,11 @@
       </c>
       <c r="J14" s="10">
         <f>ROUNDUP(I14/E14*$B$5,0)</f>
-        <v>1650</v>
+        <v>1375</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="4"/>
-        <v>3300</v>
+        <v>3575</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -1266,11 +1266,11 @@
       </c>
       <c r="J15" s="13">
         <f t="shared" si="3"/>
-        <v>1125</v>
+        <v>938</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="4"/>
-        <v>12562</v>
+        <v>12749</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -1301,11 +1301,11 @@
       </c>
       <c r="J16" s="15">
         <f>SUM(J8:J15)</f>
-        <v>4728</v>
+        <v>3940</v>
       </c>
       <c r="K16" s="15">
         <f>SUM(K8:K15)</f>
-        <v>19537</v>
+        <v>20325</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1398,11 +1398,11 @@
       </c>
       <c r="J21" s="27">
         <f>J16+J19+J20</f>
-        <v>4728</v>
+        <v>3940</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="5"/>
-        <v>19537</v>
+        <v>20325</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1418,15 +1418,15 @@
       <c r="H22" s="8"/>
       <c r="I22" s="28">
         <f>ROUNDUP(I21/$B$18,0)</f>
-        <v>24265</v>
+        <v>8089</v>
       </c>
       <c r="J22" s="28">
         <f>ROUNDUP(J21/$B$18,0)</f>
-        <v>4728</v>
+        <v>1314</v>
       </c>
       <c r="K22" s="28">
         <f t="shared" si="5"/>
-        <v>19537</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,6 +1463,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
